--- a/results/I3_N5_M3_T30_C100_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1183.475718237293</v>
+        <v>2066.761917344469</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04200005531311035</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728903</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.624823803610445</v>
+        <v>16.42556716767945</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.624823803610445</v>
+        <v>3.332632436278654</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>718.1900000000039</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>439.1</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.894440469094175</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.8839324825959</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.55091596648896</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.99539592898705</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.50875628620634</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,15 +1087,211 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>50.75499999999964</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.12499999999964</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>49.95499999999964</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>48.15499999999964</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.96999999999964</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.0549999999994</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>116.7749999999994</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.6749999999994</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>115.3349999999994</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>117.75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999984</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>152.9850000000009</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.2300000000008</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>159.1650000000009</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.6300000000008</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>161.4950000000009</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>85.66500000000059</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>77.02500000000057</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>77.97500000000058</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1647,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>86.04000000000059</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.91000000000058</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.0549999999994</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>116.7749999999994</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>114.6749999999994</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1702,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>115.3349999999994</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>117.75</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -1528,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.9850000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.2300000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.1650000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.6300000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.4950000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1674,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0549999999994</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -1685,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>16.77499999999941</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.67499999999944</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.3349999999994</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
@@ -1729,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.98500000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1740,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.23000000000084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1751,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>59.16500000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1958,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>56.63000000000085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1773,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>61.49500000000086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1875,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +2104,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +2225,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2269,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2335,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2376,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2387,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2398,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2409,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,7 +2420,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2235,7 +2431,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2246,7 +2442,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2257,7 +2453,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2268,7 +2464,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2279,12 +2475,111 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
